--- a/Plan SOP.xlsx
+++ b/Plan SOP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Documents\jesper\skole\GYM\SOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F3F286-5160-4FD4-BE73-D322B79C047E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69F7F24-7C19-46F2-9929-BDED43408128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="1335" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>November 2022</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Redegør for matrixbegrebet, idehirstorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -762,8 +765,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1018,7 @@
         <v>36</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3"/>
     </row>
